--- a/mbs-perturbation/bloated/elm/smote/bloated_elm__smote_results.xlsx
+++ b/mbs-perturbation/bloated/elm/smote/bloated_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.865546218487395</v>
+        <v>0.8826291079812206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9074889867841409</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8860215053763441</v>
+        <v>0.9060240963855423</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9353652289724415</v>
+        <v>0.9492821782178218</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8644859813084113</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9068627450980392</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8851674641148325</v>
+        <v>0.9309462915601023</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9478158351948374</v>
+        <v>0.9756100582187539</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.868421052631579</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9041095890410958</v>
+        <v>0.9119170984455959</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8859060402684564</v>
+        <v>0.8606356968215159</v>
       </c>
       <c r="E4" t="n">
-        <v>0.934931506849315</v>
+        <v>0.9323697845650396</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.865546218487395</v>
+        <v>0.8926829268292683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8995633187772926</v>
+        <v>0.9336734693877551</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8822269807280514</v>
+        <v>0.9127182044887782</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9342712367141799</v>
+        <v>0.9609756097560976</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8715596330275229</v>
+        <v>0.9144144144144144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8482142857142857</v>
+        <v>0.9311926605504587</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8597285067873303</v>
+        <v>0.9227272727272726</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9431677913100724</v>
+        <v>0.9621872963352887</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8671118207884605</v>
+        <v>0.8866225385222293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.893247785082971</v>
+        <v>0.9281619262048147</v>
       </c>
       <c r="D7" t="n">
-        <v>0.879810099455003</v>
+        <v>0.9066103123966422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9391103198081693</v>
+        <v>0.9560849854186003</v>
       </c>
     </row>
   </sheetData>
